--- a/test/test_NO7/prepareInput/WorkflowMean.xlsx
+++ b/test/test_NO7/prepareInput/WorkflowMean.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
   <si>
     <t>Code Identifier</t>
   </si>
@@ -226,9 +226,6 @@
     <t>Boeckmann 1994</t>
   </si>
   <si>
-    <t>WorkflowMean.xlsx</t>
-  </si>
-  <si>
     <t>data.mndat</t>
   </si>
   <si>
@@ -245,6 +242,33 @@
   </si>
   <si>
     <t>mg*h/l</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>sensXls</t>
+  </si>
+  <si>
+    <t>xlsfilefor sensitivity Parameter definition; if it is empty, sheet is in this xlsfile</t>
+  </si>
+  <si>
+    <t>sensSheet</t>
+  </si>
+  <si>
+    <t>xlssheet for sensitivity Parameter definition; if empty first sheet is taken</t>
+  </si>
+  <si>
+    <t>TaskdoAbsorptionPlots</t>
+  </si>
+  <si>
+    <t>absorption is plotted</t>
+  </si>
+  <si>
+    <t>massbalance will be checked</t>
+  </si>
+  <si>
+    <t>TaskcheckMassbalance</t>
   </si>
 </sst>
 </file>
@@ -676,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -769,9 +793,6 @@
       <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="8" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -810,7 +831,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -838,7 +859,7 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
@@ -853,42 +874,97 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="8"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -934,7 +1010,7 @@
         <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="14"/>
     </row>
@@ -946,7 +1022,7 @@
         <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
@@ -957,7 +1033,7 @@
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
@@ -968,7 +1044,7 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
@@ -1000,7 +1076,7 @@
         <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1033,7 +1109,7 @@
         <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1044,7 +1120,7 @@
         <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
